--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-960" yWindow="2364" windowWidth="22464" windowHeight="5328"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -38,7 +39,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,14 +60,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -120,13 +113,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -134,12 +124,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -413,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -436,18 +424,15 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="B5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
